--- a/biology/Botanique/Murs_colonisés_par_les_arbres_à_Hong_Kong/Murs_colonisés_par_les_arbres_à_Hong_Kong.xlsx
+++ b/biology/Botanique/Murs_colonisés_par_les_arbres_à_Hong_Kong/Murs_colonisés_par_les_arbres_à_Hong_Kong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
+          <t>Murs_colonisés_par_les_arbres_à_Hong_Kong</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les murs colonisés par des arbres sont aujourd'hui volontairement créés en cultivant des arbres dans des brèches de murs de soutènement. Au début de l'urbanisation de Hong Kong, la verdure des sites n'étaient pas pris en compte lors de la construction des routes qui étaient souvent étroites et n'avaient aucun espace pour ajouter de la végétation. Les arbres sont naturellement sortis des murs et présentent l'avantage de n'occuper aucun espace supplémentaire au niveau du sol et de protéger les routes de la chaleur de l'été.
 Les grands arbres muraux, en particulier les banians, améliorent également la qualité de l'air en filtrant les particules et en bloquant la chaleur émise par les automobiles et les systèmes de climatisation des bâtiments, qui autrement seraient emprisonnés entre les gratte-ciels et généreraient de la pollution de l'air. Ils permettent aussi de maintenir la biodiversité en fournissant des habitats aux oiseaux et à divers insectes. En contrepartie, l'intégrité du mur de soutènement peut être compromise en fonction de la taille de l'arbre qui se développe, la disposition de ses racines et dans quelle mesure celles-ci ont pénétré à travers le mur.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
+          <t>Murs_colonisés_par_les_arbres_à_Hong_Kong</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,90 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À ce jour, 1275 arbres colonisent 504 murs de soutènement en pierre de maçonnerie[1], dont 110 murs dans le district Central and Western, là où il en reste la plupart[2], et de nombreux autres dans le district de Wan Chai. La majorité de ces arbres ont plus d'un siècle.
-Selon la Conservancy Association (en), certains arbres remarquables sont situés à[3] :
-Île de Hong Kong
-Le plus grand arbre est un banian chinois, situé sur Forbes Street, près de l'aire de jeux. Un autre arbre sur Bonham Road (en) près de Centre Street (en) avait  une hauteur d'environ 20 mètres, et était le plus haut de la ville, mais il fut déraciné le 22 juillet 2015 lors d'une tempête.
-District Central and Western
-Kennedy Town
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À ce jour, 1275 arbres colonisent 504 murs de soutènement en pierre de maçonnerie, dont 110 murs dans le district Central and Western, là où il en reste la plupart, et de nombreux autres dans le district de Wan Chai. La majorité de ces arbres ont plus d'un siècle.
+Selon la Conservancy Association (en), certains arbres remarquables sont situés à :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Murs_colonisés_par_les_arbres_à_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Île de Hong Kong</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus grand arbre est un banian chinois, situé sur Forbes Street, près de l'aire de jeux. Un autre arbre sur Bonham Road (en) près de Centre Street (en) avait  une hauteur d'environ 20 mètres, et était le plus haut de la ville, mais il fut déraciné le 22 juillet 2015 lors d'une tempête.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Murs_colonisés_par_les_arbres_à_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Île de Hong Kong</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>District Central and Western</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kennedy Town
 Forbes Street
 Niveaux intermédiaires
 Hollywood Road (zh) (ancien siège de la police)
@@ -530,15 +618,128 @@
 Hospital Road (en) near Bonham Road
 Devant le 84 Robinson Road
 St. Stephen's Lane
-Parc commémoratif du roi George V
-District de Wan Chai
-Stubbs Road (en) près de Kennedy Road (zh)
-Ship Street (en) (près de la terrasse Nam Koo)
-Kowloon
-District de Yau Tsim Mong
-Adjacent à l'étang de la volière du parc de Kowloon
-District de Sham Shui Po
-Lung Chu Street Nullah
+Parc commémoratif du roi George V</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Murs_colonisés_par_les_arbres_à_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Île de Hong Kong</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>District de Wan Chai</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Stubbs Road (en) près de Kennedy Road (zh)
+Ship Street (en) (près de la terrasse Nam Koo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Murs_colonisés_par_les_arbres_à_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kowloon</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>District de Yau Tsim Mong</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Adjacent à l'étang de la volière du parc de Kowloon</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Murs_colonisés_par_les_arbres_à_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kowloon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>District de Sham Shui Po</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lung Chu Street Nullah
 À Lung Chu Street Nullah, il y a environ 20 arbres muraux, dont la plupart sont des banians chinois et des figuiers à tige rouge. Tous sont des arbres matures d'une hauteur comprise entre 3 et 11 mètres. C'est le seul site de Hong Kong où les arbres muraux ne sont pas uniquement des banians chinois, la racine du figuiers à tige rouge s'étant adapté à l'état des murs. Le nullah est par conséquent un site avec une valeur scientifique particulière pour une étude plus approfondie.
 En comparant les arbres plantés dans le parc à côté de la nullah, ceux de la nullah sont riches en biodiversité. Différents types d'oiseaux peuvent être trouvés sur ces arbres, dont par exemple la bergeronnette printanière et la bergeronnette grise.
 En outre, les arbres autour de la nullah forment une canopée et fonctionnent comme un poumon vert pour les environs, par exemple en minimisant l'effet d'îlot de chaleur.
@@ -548,31 +749,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Murs_colonisés_par_les_arbres_à_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Murs_colonis%C3%A9s_par_les_arbres_%C3%A0_Hong_Kong</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Autres exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La tombe Ding aux tombeaux des Ming de Pékin
 Les murs de la dynastie Ming au parc Yuexiu de Canton</t>
